--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3097557.638443231</v>
+        <v>3095144.725937426</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8175271.586378504</v>
+        <v>8175271.586378505</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1376,13 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>311.7236160152329</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1424,19 +1424,19 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>135.6144989434185</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
         <v>120.2716844800353</v>
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433872</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128494</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>275.9723987444513</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>233.0687863154182</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
         <v>247.6326277687279</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
         <v>204.0200353403094</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247809</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
         <v>120.2716844800353</v>
@@ -1771,16 +1771,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433872</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I16" t="n">
         <v>49.37728379124555</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="17">
@@ -1844,19 +1844,19 @@
         <v>314.5096953211453</v>
       </c>
       <c r="C17" t="n">
-        <v>297.0487454286723</v>
+        <v>297.0487454286722</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>286.4588952783477</v>
       </c>
       <c r="E17" t="n">
-        <v>313.7062237299265</v>
+        <v>243.9557686402711</v>
       </c>
       <c r="F17" t="n">
-        <v>338.6518993993762</v>
+        <v>338.6518993993761</v>
       </c>
       <c r="G17" t="n">
-        <v>342.6975793111182</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>226.3836180449852</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.96361544584056</v>
+        <v>40.96361544584053</v>
       </c>
       <c r="T17" t="n">
-        <v>135.6938237972849</v>
+        <v>135.6938237972848</v>
       </c>
       <c r="U17" t="n">
-        <v>56.78188649414037</v>
+        <v>182.7710256165667</v>
       </c>
       <c r="V17" t="n">
-        <v>259.5281121277997</v>
+        <v>259.5281121277996</v>
       </c>
       <c r="W17" t="n">
-        <v>281.0168223750778</v>
+        <v>281.0168223750777</v>
       </c>
       <c r="X17" t="n">
-        <v>301.5069543361338</v>
+        <v>301.5069543361337</v>
       </c>
       <c r="Y17" t="n">
         <v>318.0137923137183</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2002,25 +2002,25 @@
         <v>111.607833839602</v>
       </c>
       <c r="C19" t="n">
-        <v>99.02267475629257</v>
+        <v>99.02267475629255</v>
       </c>
       <c r="D19" t="n">
-        <v>80.3913266758771</v>
+        <v>80.39132667587707</v>
       </c>
       <c r="E19" t="n">
-        <v>78.20981630423391</v>
+        <v>78.20981630423388</v>
       </c>
       <c r="F19" t="n">
-        <v>77.19690168059599</v>
+        <v>77.19690168059596</v>
       </c>
       <c r="G19" t="n">
-        <v>97.80166191669296</v>
+        <v>97.80166191669294</v>
       </c>
       <c r="H19" t="n">
-        <v>76.53086857198552</v>
+        <v>76.53086857198549</v>
       </c>
       <c r="I19" t="n">
-        <v>28.12827406750284</v>
+        <v>28.12827406750279</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.70800632771207</v>
+        <v>20.70800632771203</v>
       </c>
       <c r="S19" t="n">
         <v>121.5448789891066</v>
       </c>
       <c r="T19" t="n">
-        <v>151.324802933834</v>
+        <v>151.3248029338339</v>
       </c>
       <c r="U19" t="n">
-        <v>217.9876918632776</v>
+        <v>217.9876918632775</v>
       </c>
       <c r="V19" t="n">
-        <v>183.9134969814928</v>
+        <v>183.9134969814927</v>
       </c>
       <c r="W19" t="n">
-        <v>218.2988519942558</v>
+        <v>218.2988519942557</v>
       </c>
       <c r="X19" t="n">
-        <v>157.4855090467019</v>
+        <v>157.4855090467018</v>
       </c>
       <c r="Y19" t="n">
         <v>150.3605070097595</v>
@@ -2081,7 +2081,7 @@
         <v>314.5096953211453</v>
       </c>
       <c r="C20" t="n">
-        <v>61.25815027102249</v>
+        <v>297.0487454286722</v>
       </c>
       <c r="D20" t="n">
         <v>286.4588952783477</v>
@@ -2090,13 +2090,13 @@
         <v>313.7062237299265</v>
       </c>
       <c r="F20" t="n">
-        <v>338.6518993993762</v>
+        <v>152.5874830435877</v>
       </c>
       <c r="G20" t="n">
-        <v>342.6975793111182</v>
+        <v>342.6975793111181</v>
       </c>
       <c r="H20" t="n">
-        <v>226.3836180449852</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.96361544584055</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>135.6938237972848</v>
       </c>
       <c r="U20" t="n">
         <v>182.7710256165667</v>
       </c>
       <c r="V20" t="n">
-        <v>259.5281121277997</v>
+        <v>259.5281121277996</v>
       </c>
       <c r="W20" t="n">
-        <v>281.0168223750778</v>
+        <v>281.0168223750777</v>
       </c>
       <c r="X20" t="n">
-        <v>301.5069543361338</v>
+        <v>301.5069543361337</v>
       </c>
       <c r="Y20" t="n">
         <v>318.0137923137183</v>
@@ -2239,25 +2239,25 @@
         <v>111.607833839602</v>
       </c>
       <c r="C22" t="n">
-        <v>99.02267475629257</v>
+        <v>99.02267475629255</v>
       </c>
       <c r="D22" t="n">
-        <v>80.3913266758771</v>
+        <v>80.39132667587707</v>
       </c>
       <c r="E22" t="n">
-        <v>78.20981630423391</v>
+        <v>78.20981630423388</v>
       </c>
       <c r="F22" t="n">
-        <v>77.19690168059599</v>
+        <v>77.19690168059596</v>
       </c>
       <c r="G22" t="n">
-        <v>97.80166191669296</v>
+        <v>97.80166191669294</v>
       </c>
       <c r="H22" t="n">
-        <v>76.53086857198552</v>
+        <v>76.53086857198549</v>
       </c>
       <c r="I22" t="n">
-        <v>28.12827406750284</v>
+        <v>28.12827406750281</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.70800632771207</v>
+        <v>20.70800632771204</v>
       </c>
       <c r="S22" t="n">
         <v>121.5448789891066</v>
       </c>
       <c r="T22" t="n">
-        <v>151.324802933834</v>
+        <v>151.3248029338339</v>
       </c>
       <c r="U22" t="n">
-        <v>217.9876918632776</v>
+        <v>217.9876918632775</v>
       </c>
       <c r="V22" t="n">
-        <v>183.9134969814928</v>
+        <v>183.9134969814927</v>
       </c>
       <c r="W22" t="n">
-        <v>218.2988519942558</v>
+        <v>218.2988519942557</v>
       </c>
       <c r="X22" t="n">
-        <v>157.4855090467019</v>
+        <v>157.4855090467018</v>
       </c>
       <c r="Y22" t="n">
         <v>150.3605070097595</v>
@@ -2327,10 +2327,10 @@
         <v>313.7062237299265</v>
       </c>
       <c r="F23" t="n">
-        <v>338.6518993993762</v>
+        <v>338.6518993993761</v>
       </c>
       <c r="G23" t="n">
-        <v>342.6975793111182</v>
+        <v>342.6975793111181</v>
       </c>
       <c r="H23" t="n">
         <v>226.3836180449852</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.96361544584059</v>
+        <v>40.96361544584057</v>
       </c>
       <c r="T23" t="n">
         <v>135.6938237972849</v>
@@ -2378,10 +2378,10 @@
         <v>259.5281121277997</v>
       </c>
       <c r="W23" t="n">
-        <v>281.0168223750778</v>
+        <v>281.0168223750777</v>
       </c>
       <c r="X23" t="n">
-        <v>301.5069543361338</v>
+        <v>301.5069543361337</v>
       </c>
       <c r="Y23" t="n">
         <v>318.0137923137183</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>111.607833839602</v>
       </c>
       <c r="C25" t="n">
-        <v>99.02267475629257</v>
+        <v>99.02267475629256</v>
       </c>
       <c r="D25" t="n">
-        <v>80.3913266758771</v>
+        <v>80.39132667587708</v>
       </c>
       <c r="E25" t="n">
-        <v>78.20981630423391</v>
+        <v>78.2098163042339</v>
       </c>
       <c r="F25" t="n">
-        <v>77.19690168059599</v>
+        <v>77.19690168059597</v>
       </c>
       <c r="G25" t="n">
-        <v>97.80166191669296</v>
+        <v>97.80166191669295</v>
       </c>
       <c r="H25" t="n">
-        <v>76.53086857198552</v>
+        <v>76.53086857198551</v>
       </c>
       <c r="I25" t="n">
-        <v>28.12827406750285</v>
+        <v>28.12827406750284</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.70800632771208</v>
+        <v>20.70800632771207</v>
       </c>
       <c r="S25" t="n">
         <v>121.5448789891066</v>
       </c>
       <c r="T25" t="n">
-        <v>151.324802933834</v>
+        <v>151.3248029338339</v>
       </c>
       <c r="U25" t="n">
         <v>217.9876918632776</v>
       </c>
       <c r="V25" t="n">
-        <v>183.9134969814928</v>
+        <v>183.9134969814927</v>
       </c>
       <c r="W25" t="n">
-        <v>218.2988519942558</v>
+        <v>218.2988519942557</v>
       </c>
       <c r="X25" t="n">
         <v>157.4855090467019</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247657</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2807,7 +2807,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687285</v>
+        <v>247.6326277687294</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958338</v>
+        <v>62.21262516958335</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210277</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247657</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996199</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797668</v>
+        <v>99.45882602797667</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433876</v>
+        <v>98.44591140433874</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957283</v>
+        <v>97.77987829572828</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124562</v>
+        <v>49.37728379124561</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007088</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3323,13 +3323,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052287</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>134.2912433677303</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>178.9844409833832</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239898</v>
@@ -3512,10 +3512,10 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253477</v>
       </c>
       <c r="H38" t="n">
         <v>196.9230441592155</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156006886</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
@@ -3560,13 +3560,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052287</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010739</v>
+        <v>93.13769105450045</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G40" t="n">
-        <v>120.6328936716414</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>310.7752483302254</v>
+        <v>310.7752483302255</v>
       </c>
       <c r="C41" t="n">
         <v>293.3142984377524</v>
       </c>
       <c r="D41" t="n">
-        <v>282.7244482874278</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>309.9717767390066</v>
+        <v>232.5304484985348</v>
       </c>
       <c r="F41" t="n">
         <v>334.9174524084563</v>
@@ -3755,7 +3755,7 @@
         <v>338.9631323201983</v>
       </c>
       <c r="H41" t="n">
-        <v>222.6491710540653</v>
+        <v>222.6491710540654</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.22916845492068</v>
+        <v>37.22916845492072</v>
       </c>
       <c r="T41" t="n">
         <v>131.959376806365</v>
       </c>
       <c r="U41" t="n">
-        <v>74.6644672346291</v>
+        <v>179.0365786256469</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>255.7936651368798</v>
       </c>
       <c r="W41" t="n">
-        <v>277.2823753841578</v>
+        <v>277.2823753841579</v>
       </c>
       <c r="X41" t="n">
         <v>297.7725073452139</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.8733868486821</v>
+        <v>107.8733868486822</v>
       </c>
       <c r="C43" t="n">
-        <v>95.28822776537268</v>
+        <v>95.28822776537271</v>
       </c>
       <c r="D43" t="n">
-        <v>76.6568796849572</v>
+        <v>76.65687968495723</v>
       </c>
       <c r="E43" t="n">
-        <v>74.47536931331402</v>
+        <v>74.47536931331405</v>
       </c>
       <c r="F43" t="n">
-        <v>73.46245468967609</v>
+        <v>73.46245468967612</v>
       </c>
       <c r="G43" t="n">
-        <v>94.06721492577307</v>
+        <v>94.0672149257731</v>
       </c>
       <c r="H43" t="n">
-        <v>72.79642158106563</v>
+        <v>72.79642158106566</v>
       </c>
       <c r="I43" t="n">
-        <v>24.39382707658294</v>
+        <v>24.39382707658299</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>48.38621557233321</v>
+        <v>16.97355933679222</v>
       </c>
       <c r="S43" t="n">
-        <v>117.8104319981867</v>
+        <v>117.8104319981868</v>
       </c>
       <c r="T43" t="n">
-        <v>147.590355942914</v>
+        <v>179.0030121784546</v>
       </c>
       <c r="U43" t="n">
         <v>214.2532448723577</v>
       </c>
       <c r="V43" t="n">
-        <v>180.1790499905728</v>
+        <v>180.1790499905729</v>
       </c>
       <c r="W43" t="n">
-        <v>214.5644050033358</v>
+        <v>214.5644050033359</v>
       </c>
       <c r="X43" t="n">
         <v>153.751062055782</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.6260600188396</v>
+        <v>146.6260600188397</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>310.7752483302255</v>
       </c>
       <c r="C44" t="n">
         <v>293.3142984377524</v>
@@ -3983,7 +3983,7 @@
         <v>282.7244482874278</v>
       </c>
       <c r="E44" t="n">
-        <v>309.9717767390066</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>334.9174524084563</v>
@@ -3992,7 +3992,7 @@
         <v>338.9631323201983</v>
       </c>
       <c r="H44" t="n">
-        <v>222.6491710540653</v>
+        <v>172.4551712651726</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,19 +4025,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>37.22916845492072</v>
       </c>
       <c r="T44" t="n">
         <v>131.959376806365</v>
       </c>
       <c r="U44" t="n">
-        <v>179.0365786256468</v>
+        <v>179.0365786256469</v>
       </c>
       <c r="V44" t="n">
-        <v>243.6323053941279</v>
+        <v>255.7936651368798</v>
       </c>
       <c r="W44" t="n">
-        <v>277.2823753841578</v>
+        <v>277.2823753841579</v>
       </c>
       <c r="X44" t="n">
         <v>297.7725073452139</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.8733868486821</v>
+        <v>107.8733868486822</v>
       </c>
       <c r="C46" t="n">
-        <v>95.28822776537268</v>
+        <v>95.28822776537271</v>
       </c>
       <c r="D46" t="n">
-        <v>76.6568796849572</v>
+        <v>76.65687968495723</v>
       </c>
       <c r="E46" t="n">
-        <v>74.47536931331402</v>
+        <v>74.47536931331405</v>
       </c>
       <c r="F46" t="n">
-        <v>73.46245468967609</v>
+        <v>73.46245468967612</v>
       </c>
       <c r="G46" t="n">
-        <v>94.06721492577307</v>
+        <v>94.0672149257731</v>
       </c>
       <c r="H46" t="n">
-        <v>72.79642158106563</v>
+        <v>72.79642158106566</v>
       </c>
       <c r="I46" t="n">
-        <v>24.39382707658296</v>
+        <v>24.39382707658299</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>48.38621557233276</v>
       </c>
       <c r="S46" t="n">
-        <v>117.8104319981867</v>
+        <v>117.8104319981868</v>
       </c>
       <c r="T46" t="n">
-        <v>147.590355942914</v>
+        <v>147.5903559429141</v>
       </c>
       <c r="U46" t="n">
         <v>214.2532448723577</v>
       </c>
       <c r="V46" t="n">
-        <v>180.1790499905728</v>
+        <v>180.1790499905729</v>
       </c>
       <c r="W46" t="n">
-        <v>214.5644050033358</v>
+        <v>214.5644050033359</v>
       </c>
       <c r="X46" t="n">
         <v>153.751062055782</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.6260600188396</v>
+        <v>146.6260600188397</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2018.472742224994</v>
+        <v>1627.383644777219</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.959858232656</v>
+        <v>1305.870760784881</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573979</v>
+        <v>995.0546951262033</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923808</v>
+        <v>680.1823557168773</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822731</v>
+        <v>316.646083875343</v>
       </c>
       <c r="G11" t="n">
         <v>316.646083875343</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084341</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416636</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>3104.236671416636</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2820.623417021139</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2820.623417021139</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>2494.607291708132</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="Y11" t="n">
-        <v>2357.622949341043</v>
+        <v>1966.533851893267</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052945</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C13" t="n">
         <v>637.9796998254608</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998338</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657649</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315253</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328083</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L13" t="n">
         <v>771.697886033711</v>
@@ -5218,10 +5218,10 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S13" t="n">
         <v>2112.720554588246</v>
@@ -5242,7 +5242,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874609</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1522.736669656751</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C14" t="n">
-        <v>1201.223785664412</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="D14" t="n">
-        <v>890.407720005735</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E14" t="n">
-        <v>552.0691003555635</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="F14" t="n">
-        <v>552.0691003555635</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G14" t="n">
         <v>316.646083875343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
@@ -5291,37 +5291,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609172</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609172</v>
+        <v>3104.236671416636</v>
       </c>
       <c r="U14" t="n">
-        <v>3119.524977831082</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V14" t="n">
-        <v>2835.911723435585</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W14" t="n">
-        <v>2530.592701113544</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X14" t="n">
-        <v>2204.576575800537</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y14" t="n">
-        <v>1861.886876772799</v>
+        <v>1640.517726580262</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.156415538731</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.466249805294</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254603</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611979</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268782</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H16" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>158.1401341315257</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5449,10 +5449,10 @@
         <v>1550.274078843938</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
         <v>2299.337630107746</v>
@@ -5473,13 +5473,13 @@
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874604</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1600.338445638323</v>
+        <v>1473.076688949004</v>
       </c>
       <c r="C17" t="n">
-        <v>1300.289207831584</v>
+        <v>1173.027451142264</v>
       </c>
       <c r="D17" t="n">
-        <v>1300.289207831584</v>
+        <v>883.675031669186</v>
       </c>
       <c r="E17" t="n">
-        <v>983.4142343670114</v>
+        <v>637.2550633456798</v>
       </c>
       <c r="F17" t="n">
-        <v>641.3416087110759</v>
+        <v>295.1824376897442</v>
       </c>
       <c r="G17" t="n">
-        <v>295.1824376897443</v>
+        <v>295.1824376897442</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218345</v>
@@ -5513,10 +5513,10 @@
         <v>66.51211643218345</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329466</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3284.228432269939</v>
+        <v>3284.22843226994</v>
       </c>
       <c r="T17" t="n">
-        <v>3147.163963787833</v>
+        <v>3147.163963787834</v>
       </c>
       <c r="U17" t="n">
-        <v>3089.808522884661</v>
+        <v>2962.546766195342</v>
       </c>
       <c r="V17" t="n">
-        <v>2827.658914674762</v>
+        <v>2700.397157985443</v>
       </c>
       <c r="W17" t="n">
-        <v>2543.80353853832</v>
+        <v>2416.541781849001</v>
       </c>
       <c r="X17" t="n">
-        <v>2239.251059410912</v>
+        <v>2111.989302721594</v>
       </c>
       <c r="Y17" t="n">
-        <v>1918.025006568772</v>
+        <v>1790.763249879454</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F18" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927788</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K18" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
         <v>1685.951113992584</v>
@@ -5613,7 +5613,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125857</v>
@@ -5622,16 +5622,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>609.2207265061036</v>
+        <v>609.2207265061033</v>
       </c>
       <c r="C19" t="n">
-        <v>509.1978227118686</v>
+        <v>509.1978227118685</v>
       </c>
       <c r="D19" t="n">
-        <v>427.9944624332049</v>
+        <v>427.9944624332048</v>
       </c>
       <c r="E19" t="n">
-        <v>348.9946479844838</v>
+        <v>348.9946479844837</v>
       </c>
       <c r="F19" t="n">
-        <v>271.0179796202454</v>
+        <v>271.0179796202453</v>
       </c>
       <c r="G19" t="n">
         <v>172.2284221286363</v>
       </c>
       <c r="H19" t="n">
-        <v>94.92451448016611</v>
+        <v>94.92451448016607</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218345</v>
@@ -5674,22 +5674,22 @@
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>660.8064733261642</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>1004.963518925713</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.371895631578</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1645.701494551992</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.308994985651</v>
       </c>
       <c r="Q19" t="n">
         <v>1955.919291138166</v>
@@ -5698,10 +5698,10 @@
         <v>1935.002113029366</v>
       </c>
       <c r="S19" t="n">
-        <v>1812.229507989865</v>
+        <v>1812.229507989864</v>
       </c>
       <c r="T19" t="n">
-        <v>1659.376171693063</v>
+        <v>1659.376171693062</v>
       </c>
       <c r="U19" t="n">
         <v>1439.186583952378</v>
@@ -5710,13 +5710,13 @@
         <v>1253.415374880163</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.911483976875</v>
+        <v>1032.911483976874</v>
       </c>
       <c r="X19" t="n">
-        <v>873.8352122125293</v>
+        <v>873.8352122125291</v>
       </c>
       <c r="Y19" t="n">
-        <v>721.9559122026712</v>
+        <v>721.955912202671</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1651.518546770341</v>
+        <v>1473.076688949005</v>
       </c>
       <c r="C20" t="n">
-        <v>1589.641627304662</v>
+        <v>1173.027451142265</v>
       </c>
       <c r="D20" t="n">
-        <v>1300.289207831584</v>
+        <v>883.6750316691865</v>
       </c>
       <c r="E20" t="n">
-        <v>983.4142343670113</v>
+        <v>566.8000582046143</v>
       </c>
       <c r="F20" t="n">
-        <v>641.3416087110758</v>
+        <v>412.6712874535149</v>
       </c>
       <c r="G20" t="n">
-        <v>295.1824376897442</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3284.22843226994</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3147.163963787834</v>
       </c>
       <c r="U20" t="n">
-        <v>3140.988624016679</v>
+        <v>2962.546766195343</v>
       </c>
       <c r="V20" t="n">
-        <v>2878.83901580678</v>
+        <v>2700.397157985444</v>
       </c>
       <c r="W20" t="n">
-        <v>2594.983639670339</v>
+        <v>2416.541781849002</v>
       </c>
       <c r="X20" t="n">
-        <v>2290.431160542931</v>
+        <v>2111.989302721594</v>
       </c>
       <c r="Y20" t="n">
-        <v>1969.205107700791</v>
+        <v>1790.763249879454</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>609.2207265061036</v>
+        <v>609.2207265061033</v>
       </c>
       <c r="C22" t="n">
-        <v>509.1978227118686</v>
+        <v>509.1978227118685</v>
       </c>
       <c r="D22" t="n">
-        <v>427.9944624332049</v>
+        <v>427.9944624332048</v>
       </c>
       <c r="E22" t="n">
-        <v>348.9946479844838</v>
+        <v>348.9946479844837</v>
       </c>
       <c r="F22" t="n">
-        <v>271.0179796202454</v>
+        <v>271.0179796202453</v>
       </c>
       <c r="G22" t="n">
         <v>172.2284221286363</v>
       </c>
       <c r="H22" t="n">
-        <v>94.9245144801661</v>
+        <v>94.92451448016608</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5926,7 +5926,7 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.308994985652</v>
+        <v>1878.308994985651</v>
       </c>
       <c r="Q22" t="n">
         <v>1955.919291138166</v>
@@ -5935,10 +5935,10 @@
         <v>1935.002113029366</v>
       </c>
       <c r="S22" t="n">
-        <v>1812.229507989865</v>
+        <v>1812.229507989864</v>
       </c>
       <c r="T22" t="n">
-        <v>1659.376171693063</v>
+        <v>1659.376171693062</v>
       </c>
       <c r="U22" t="n">
         <v>1439.186583952378</v>
@@ -5947,13 +5947,13 @@
         <v>1253.415374880163</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.911483976875</v>
+        <v>1032.911483976874</v>
       </c>
       <c r="X22" t="n">
-        <v>873.8352122125293</v>
+        <v>873.8352122125291</v>
       </c>
       <c r="Y22" t="n">
-        <v>721.9559122026712</v>
+        <v>721.955912202671</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1898.193195237165</v>
+        <v>1898.193195237164</v>
       </c>
       <c r="C23" t="n">
         <v>1598.143957430425</v>
@@ -5981,37 +5981,37 @@
         <v>303.6847678155075</v>
       </c>
       <c r="H23" t="n">
-        <v>75.01444655794668</v>
+        <v>75.01444655794667</v>
       </c>
       <c r="I23" t="n">
-        <v>75.01444655794668</v>
+        <v>75.01444655794667</v>
       </c>
       <c r="J23" t="n">
-        <v>431.2992265373251</v>
+        <v>263.8935775169721</v>
       </c>
       <c r="K23" t="n">
-        <v>765.1186002271716</v>
+        <v>597.7129512068184</v>
       </c>
       <c r="L23" t="n">
-        <v>1216.15281347558</v>
+        <v>1048.747164455227</v>
       </c>
       <c r="M23" t="n">
-        <v>1749.684718147505</v>
+        <v>1582.279069127151</v>
       </c>
       <c r="N23" t="n">
-        <v>2296.463535206287</v>
+        <v>2168.679882898216</v>
       </c>
       <c r="O23" t="n">
-        <v>2799.436006085624</v>
+        <v>3048.644533227671</v>
       </c>
       <c r="P23" t="n">
-        <v>3194.210372442802</v>
+        <v>3443.418899584849</v>
       </c>
       <c r="Q23" t="n">
-        <v>3626.646005666279</v>
+        <v>3691.705261340531</v>
       </c>
       <c r="R23" t="n">
-        <v>3750.722327897334</v>
+        <v>3750.722327897333</v>
       </c>
       <c r="S23" t="n">
         <v>3709.3449385581</v>
@@ -6032,7 +6032,7 @@
         <v>2537.105809009754</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.879756167615</v>
+        <v>2215.879756167614</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>467.4212906590382</v>
       </c>
       <c r="F24" t="n">
-        <v>320.8867326859232</v>
+        <v>320.8867326859231</v>
       </c>
       <c r="G24" t="n">
-        <v>184.5236325185413</v>
+        <v>184.5236325185412</v>
       </c>
       <c r="H24" t="n">
-        <v>94.02173815640876</v>
+        <v>94.02173815640873</v>
       </c>
       <c r="I24" t="n">
-        <v>75.01444655794668</v>
+        <v>75.01444655794667</v>
       </c>
       <c r="J24" t="n">
-        <v>168.691716048564</v>
+        <v>168.6917160485644</v>
       </c>
       <c r="K24" t="n">
-        <v>406.955915028911</v>
+        <v>406.9559150289115</v>
       </c>
       <c r="L24" t="n">
-        <v>773.6540753415763</v>
+        <v>773.6540753415768</v>
       </c>
       <c r="M24" t="n">
-        <v>1220.930400563892</v>
+        <v>1220.930400563893</v>
       </c>
       <c r="N24" t="n">
         <v>1694.453444118347</v>
       </c>
       <c r="O24" t="n">
-        <v>2105.414723536401</v>
+        <v>2105.414723536402</v>
       </c>
       <c r="P24" t="n">
-        <v>2415.914315012504</v>
+        <v>2415.914315012505</v>
       </c>
       <c r="Q24" t="n">
-        <v>2573.555872659103</v>
+        <v>2573.555872659104</v>
       </c>
       <c r="R24" t="n">
         <v>2573.41151925162</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>617.7230566318668</v>
+        <v>617.7230566318667</v>
       </c>
       <c r="C25" t="n">
-        <v>517.7001528376319</v>
+        <v>517.7001528376318</v>
       </c>
       <c r="D25" t="n">
         <v>436.4967925589681</v>
@@ -6136,13 +6136,13 @@
         <v>279.5203097460086</v>
       </c>
       <c r="G25" t="n">
-        <v>180.7307522543996</v>
+        <v>180.7307522543995</v>
       </c>
       <c r="H25" t="n">
-        <v>103.4268446059294</v>
+        <v>103.4268446059293</v>
       </c>
       <c r="I25" t="n">
-        <v>75.01444655794668</v>
+        <v>75.01444655794667</v>
       </c>
       <c r="J25" t="n">
         <v>120.1370790048822</v>
@@ -6151,25 +6151,25 @@
         <v>324.1242619537585</v>
       </c>
       <c r="L25" t="n">
-        <v>640.6840604022547</v>
+        <v>640.6840604022545</v>
       </c>
       <c r="M25" t="n">
-        <v>984.8411060018036</v>
+        <v>1013.465849051478</v>
       </c>
       <c r="N25" t="n">
-        <v>1326.249482707668</v>
+        <v>1354.874225757342</v>
       </c>
       <c r="O25" t="n">
-        <v>1625.579081628081</v>
+        <v>1654.203824677756</v>
       </c>
       <c r="P25" t="n">
         <v>1886.811325111415</v>
       </c>
       <c r="Q25" t="n">
-        <v>1964.42162126393</v>
+        <v>1964.421621263929</v>
       </c>
       <c r="R25" t="n">
-        <v>1943.50444315513</v>
+        <v>1943.504443155129</v>
       </c>
       <c r="S25" t="n">
         <v>1820.731838115628</v>
@@ -6178,7 +6178,7 @@
         <v>1667.878501818826</v>
       </c>
       <c r="U25" t="n">
-        <v>1447.688914078142</v>
+        <v>1447.688914078141</v>
       </c>
       <c r="V25" t="n">
         <v>1261.917705005927</v>
@@ -6187,10 +6187,10 @@
         <v>1041.413814102638</v>
       </c>
       <c r="X25" t="n">
-        <v>882.3375423382927</v>
+        <v>882.3375423382925</v>
       </c>
       <c r="Y25" t="n">
-        <v>730.4582423284346</v>
+        <v>730.4582423284344</v>
       </c>
     </row>
     <row r="26">
@@ -6203,73 +6203,73 @@
         <v>2033.107542689501</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467801</v>
+        <v>698.9037015467807</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>1092.155029011367</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L26" t="n">
-        <v>1706.9256018805</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>2240.457506552424</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2787.236323611206</v>
+        <v>2135.190356524676</v>
       </c>
       <c r="O26" t="n">
-        <v>3290.208794490543</v>
+        <v>2826.495488321723</v>
       </c>
       <c r="P26" t="n">
-        <v>3684.983160847721</v>
+        <v>3539.850575768669</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.34584483446</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309628</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468336</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146295</v>
       </c>
       <c r="X26" t="n">
         <v>2714.947448833288</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
         <v>779.7865456803188</v>
@@ -6327,25 +6327,25 @@
         <v>2579.688342997846</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T27" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U27" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V27" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W27" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y27" t="n">
         <v>1124.393991965682</v>
@@ -6358,58 +6358,58 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643392</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T28" t="n">
         <v>1953.038372570351</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467804</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398493</v>
+        <v>331.2808843398502</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557146</v>
@@ -6473,40 +6473,40 @@
         <v>1588.411539465894</v>
       </c>
       <c r="N29" t="n">
-        <v>2135.190356524676</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O29" t="n">
-        <v>2826.495488321722</v>
+        <v>3355.268050164797</v>
       </c>
       <c r="P29" t="n">
-        <v>3539.850575768668</v>
+        <v>3750.042416521975</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.34584483446</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309628</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468336</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146295</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456145</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644876</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032363</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6585,7 +6585,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="31">
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913838</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J31" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>822.917933464227</v>
+        <v>822.9179334642279</v>
       </c>
       <c r="L32" t="n">
         <v>1273.952146712636</v>
       </c>
       <c r="M32" t="n">
-        <v>1807.48405138456</v>
+        <v>1807.484051384561</v>
       </c>
       <c r="N32" t="n">
-        <v>2787.236323611206</v>
+        <v>2787.236323611207</v>
       </c>
       <c r="O32" t="n">
-        <v>3290.208794490543</v>
+        <v>3290.208794490544</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.983160847721</v>
+        <v>3684.983160847722</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603404</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.34584483446</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309628</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
         <v>779.7865456803188</v>
@@ -6798,28 +6798,28 @@
         <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U33" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y33" t="n">
         <v>1124.393991965682</v>
@@ -6841,10 +6841,10 @@
         <v>549.9474938257044</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913846</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415475</v>
+        <v>350.0437186415474</v>
       </c>
       <c r="G34" t="n">
         <v>229.7905149643396</v>
@@ -6853,22 +6853,22 @@
         <v>131.0229611302706</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973154</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982181</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O34" t="n">
         <v>1910.743863481265</v>
@@ -6920,52 +6920,52 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464977</v>
       </c>
       <c r="F35" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810568</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515855</v>
@@ -7008,10 +7008,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7032,10 +7032,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>500.9308303909358</v>
+        <v>599.6022649647792</v>
       </c>
       <c r="C37" t="n">
         <v>430.6660820368723</v>
@@ -7084,19 +7084,19 @@
         <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1645.778206672847</v>
+        <v>1791.646827515027</v>
       </c>
       <c r="T37" t="n">
-        <v>1522.683025816216</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U37" t="n">
-        <v>1332.251593515703</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V37" t="n">
-        <v>1176.23853988366</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W37" t="n">
-        <v>886.8213698466989</v>
+        <v>934.0185561150363</v>
       </c>
       <c r="X37" t="n">
-        <v>706.0290052170188</v>
+        <v>804.7004397908623</v>
       </c>
       <c r="Y37" t="n">
-        <v>583.9078606473321</v>
+        <v>682.5792952211756</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103807</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.2565860709</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464988</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307346</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
         <v>589.2106210810562</v>
@@ -7181,43 +7181,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362622</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960654</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7263,16 +7263,16 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>651.0765132702855</v>
+        <v>444.8926667912269</v>
       </c>
       <c r="C40" t="n">
-        <v>580.811764916222</v>
+        <v>374.6279184371634</v>
       </c>
       <c r="D40" t="n">
-        <v>529.3665600777297</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E40" t="n">
-        <v>480.1249010691799</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F40" t="n">
-        <v>431.906388145113</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1744.44964124669</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T40" t="n">
-        <v>1522.683025816216</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U40" t="n">
-        <v>1332.251593515703</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V40" t="n">
-        <v>1176.23853988366</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>985.4928044205426</v>
+        <v>877.9803925153274</v>
       </c>
       <c r="X40" t="n">
-        <v>856.1746880963686</v>
+        <v>748.6622761911534</v>
       </c>
       <c r="Y40" t="n">
-        <v>734.0535435266819</v>
+        <v>527.8696970476233</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1867.05785304522</v>
+        <v>1503.254038370575</v>
       </c>
       <c r="C41" t="n">
-        <v>1570.780783916178</v>
+        <v>1206.976969241532</v>
       </c>
       <c r="D41" t="n">
-        <v>1285.200533120796</v>
+        <v>1206.976969241532</v>
       </c>
       <c r="E41" t="n">
-        <v>972.0977283339206</v>
+        <v>972.0977283339209</v>
       </c>
       <c r="F41" t="n">
-        <v>633.7972713556819</v>
+        <v>633.7972713556821</v>
       </c>
       <c r="G41" t="n">
         <v>291.4102690120474</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
         <v>3325.60582160917</v>
@@ -7442,19 +7442,19 @@
         <v>3154.708301143225</v>
       </c>
       <c r="U41" t="n">
-        <v>3079.289647370872</v>
+        <v>2973.86327222843</v>
       </c>
       <c r="V41" t="n">
-        <v>3079.289647370872</v>
+        <v>2715.485832696228</v>
       </c>
       <c r="W41" t="n">
-        <v>2799.206439912127</v>
+        <v>2435.402625237482</v>
       </c>
       <c r="X41" t="n">
-        <v>2498.426129462416</v>
+        <v>2134.622314787771</v>
       </c>
       <c r="Y41" t="n">
-        <v>2180.972245297973</v>
+        <v>1817.168430623329</v>
       </c>
     </row>
     <row r="42">
@@ -7464,73 +7464,73 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
         <v>1109.759191501176</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.8155457622256</v>
+        <v>582.8155457622257</v>
       </c>
       <c r="C43" t="n">
-        <v>486.5648106456875</v>
+        <v>486.5648106456877</v>
       </c>
       <c r="D43" t="n">
-        <v>409.1336190447206</v>
+        <v>409.1336190447207</v>
       </c>
       <c r="E43" t="n">
-        <v>333.9059732736963</v>
+        <v>333.9059732736964</v>
       </c>
       <c r="F43" t="n">
-        <v>259.7014735871548</v>
+        <v>259.7014735871549</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6840847732426</v>
+        <v>164.6840847732427</v>
       </c>
       <c r="H43" t="n">
-        <v>91.15234580246921</v>
+        <v>91.15234580246924</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,13 +7588,13 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1878.419582863914</v>
+        <v>1910.149538657389</v>
       </c>
       <c r="S43" t="n">
-        <v>1759.419146502109</v>
+        <v>1791.149102295584</v>
       </c>
       <c r="T43" t="n">
         <v>1610.337978883004</v>
@@ -7606,13 +7606,13 @@
         <v>1211.921519425498</v>
       </c>
       <c r="W43" t="n">
-        <v>995.1897971999064</v>
+        <v>995.1897971999065</v>
       </c>
       <c r="X43" t="n">
-        <v>839.8856941132578</v>
+        <v>839.885694113258</v>
       </c>
       <c r="Y43" t="n">
-        <v>691.7785627810965</v>
+        <v>691.7785627810966</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1867.057853045221</v>
+        <v>1503.254038370576</v>
       </c>
       <c r="C44" t="n">
-        <v>1570.780783916178</v>
+        <v>1206.976969241533</v>
       </c>
       <c r="D44" t="n">
-        <v>1285.200533120796</v>
+        <v>921.396718446151</v>
       </c>
       <c r="E44" t="n">
-        <v>972.0977283339209</v>
+        <v>921.396718446151</v>
       </c>
       <c r="F44" t="n">
-        <v>633.7972713556823</v>
+        <v>583.0962614679122</v>
       </c>
       <c r="G44" t="n">
-        <v>291.4102690120474</v>
+        <v>240.7092591242769</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
         <v>589.2106210810553</v>
@@ -7661,37 +7661,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3288.000600947634</v>
       </c>
       <c r="T44" t="n">
-        <v>3192.313521804761</v>
+        <v>3154.708301143225</v>
       </c>
       <c r="U44" t="n">
-        <v>3011.468492889967</v>
+        <v>2973.86327222843</v>
       </c>
       <c r="V44" t="n">
-        <v>2765.37525511812</v>
+        <v>2715.485832696228</v>
       </c>
       <c r="W44" t="n">
-        <v>2485.292047659375</v>
+        <v>2435.402625237482</v>
       </c>
       <c r="X44" t="n">
-        <v>2184.511737209664</v>
+        <v>2134.622314787772</v>
       </c>
       <c r="Y44" t="n">
-        <v>1867.057853045221</v>
+        <v>1817.168430623329</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7749,28 +7749,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>582.8155457622256</v>
+        <v>582.8155457622257</v>
       </c>
       <c r="C46" t="n">
-        <v>486.5648106456875</v>
+        <v>486.5648106456877</v>
       </c>
       <c r="D46" t="n">
-        <v>409.1336190447206</v>
+        <v>409.1336190447207</v>
       </c>
       <c r="E46" t="n">
-        <v>333.9059732736963</v>
+        <v>333.9059732736964</v>
       </c>
       <c r="F46" t="n">
-        <v>259.7014735871548</v>
+        <v>259.7014735871549</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6840847732426</v>
+        <v>164.6840847732427</v>
       </c>
       <c r="H46" t="n">
         <v>91.15234580246924</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
@@ -7843,13 +7843,13 @@
         <v>1211.921519425498</v>
       </c>
       <c r="W46" t="n">
-        <v>995.1897971999064</v>
+        <v>995.1897971999065</v>
       </c>
       <c r="X46" t="n">
-        <v>839.8856941132578</v>
+        <v>839.885694113258</v>
       </c>
       <c r="Y46" t="n">
-        <v>691.7785627810965</v>
+        <v>691.7785627810966</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>161.2833466331813</v>
+        <v>161.2833466331809</v>
       </c>
       <c r="K8" t="n">
-        <v>190.4708996772616</v>
+        <v>190.4708996772611</v>
       </c>
       <c r="L8" t="n">
-        <v>199.021486711494</v>
+        <v>199.0214867114933</v>
       </c>
       <c r="M8" t="n">
-        <v>189.4604205499973</v>
+        <v>189.4604205499965</v>
       </c>
       <c r="N8" t="n">
-        <v>187.865675725396</v>
+        <v>187.8656757253952</v>
       </c>
       <c r="O8" t="n">
-        <v>190.8661912001307</v>
+        <v>190.86619120013</v>
       </c>
       <c r="P8" t="n">
-        <v>197.7493741610383</v>
+        <v>197.7493741610377</v>
       </c>
       <c r="Q8" t="n">
-        <v>197.1608845168184</v>
+        <v>197.160884516818</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>115.0671825723704</v>
+        <v>115.0671825723702</v>
       </c>
       <c r="K9" t="n">
-        <v>117.7238752484546</v>
+        <v>117.7238752484542</v>
       </c>
       <c r="L9" t="n">
-        <v>111.503832688832</v>
+        <v>111.5038326888316</v>
       </c>
       <c r="M9" t="n">
-        <v>110.5673213586509</v>
+        <v>110.5673213586503</v>
       </c>
       <c r="N9" t="n">
-        <v>98.93952256809831</v>
+        <v>98.93952256809774</v>
       </c>
       <c r="O9" t="n">
-        <v>112.9545713195528</v>
+        <v>112.9545713195522</v>
       </c>
       <c r="P9" t="n">
-        <v>110.1843514755404</v>
+        <v>110.1843514755399</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.0787517137825</v>
+        <v>124.0787517137823</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>119.3562654747618</v>
+        <v>119.3562654747615</v>
       </c>
       <c r="M10" t="n">
-        <v>122.553251996029</v>
+        <v>122.5532519960288</v>
       </c>
       <c r="N10" t="n">
-        <v>111.7023147290574</v>
+        <v>111.7023147290571</v>
       </c>
       <c r="O10" t="n">
-        <v>123.6934388297872</v>
+        <v>123.693438829787</v>
       </c>
       <c r="P10" t="n">
-        <v>125.0956219182094</v>
+        <v>125.0956219182092</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,19 +9647,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>40.02221890129567</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.0093651189846</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>165.390262243156</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>190.2350110279907</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>8.775202786637237e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10121,16 +10121,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>190.2350110279898</v>
+        <v>287.0017854473936</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>52.18875040233638</v>
+        <v>221.2853655744111</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>8.775202786637237e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1.648459146963432e-12</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>23.23161743843631</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>203.6483030940425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>42.32535640796374</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>130.8778027194427</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23735,16 +23735,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>286.4588952783477</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>69.7504550896554</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>342.6975793111181</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>125.9891391224264</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>235.7905951576498</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>186.0644163557884</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>226.3836180449852</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.96361544584056</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>135.6938237972849</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-6.465938895416912e-13</v>
+        <v>-1.520561454526614e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>8.553158181712206e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25439,7 +25439,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>2.025899448199198e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25631,10 +25631,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>282.7244482874278</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>77.44132824047182</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25682,10 +25682,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>104.3721113910177</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>255.7936651368798</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>310.7752483302254</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>309.9717767390067</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>50.19399978889279</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.2291684549207</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>12.16135974275187</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>773407.2971141532</v>
+        <v>773407.2971141529</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>663082.8209841936</v>
+        <v>663082.8209841938</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>720438.815988316</v>
+        <v>720438.8159883161</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>720438.8159883159</v>
+        <v>720438.815988316</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>690168.2834032925</v>
+        <v>690168.2834032926</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>690168.2834032924</v>
+        <v>690168.2834032925</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>666516.1968587055</v>
+        <v>666516.1968587054</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>666516.1968587055</v>
+        <v>666516.1968587054</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26314,43 @@
         <v>757830.6133132605</v>
       </c>
       <c r="C2" t="n">
-        <v>757830.6133132604</v>
+        <v>757830.6133132603</v>
       </c>
       <c r="D2" t="n">
-        <v>757847.7578030197</v>
+        <v>757847.7578030198</v>
       </c>
       <c r="E2" t="n">
-        <v>707191.1841481047</v>
+        <v>707191.1841481046</v>
       </c>
       <c r="F2" t="n">
-        <v>707191.1841481045</v>
+        <v>707191.1841481038</v>
       </c>
       <c r="G2" t="n">
-        <v>729095.0883515324</v>
+        <v>729095.0883515327</v>
       </c>
       <c r="H2" t="n">
         <v>729095.0883515322</v>
       </c>
       <c r="I2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244618</v>
       </c>
       <c r="J2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244617</v>
       </c>
       <c r="K2" t="n">
-        <v>759463.6371244619</v>
+        <v>759463.6371244617</v>
       </c>
       <c r="L2" t="n">
         <v>759463.6371244615</v>
       </c>
       <c r="M2" t="n">
-        <v>759463.637124463</v>
+        <v>759463.6371244619</v>
       </c>
       <c r="N2" t="n">
-        <v>759463.637124463</v>
+        <v>759463.6371244629</v>
       </c>
       <c r="O2" t="n">
-        <v>732944.630998713</v>
+        <v>732944.6309987127</v>
       </c>
       <c r="P2" t="n">
         <v>732944.6309987134</v>
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49603.99004264909</v>
+        <v>49603.99004264997</v>
       </c>
       <c r="E3" t="n">
-        <v>1114814.601112468</v>
+        <v>1114814.601112467</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>16999.207778994</v>
+        <v>16999.20777899438</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28261.85161716343</v>
+        <v>28261.85161716351</v>
       </c>
       <c r="J3" t="n">
-        <v>40637.45238225412</v>
+        <v>40637.45238225421</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16999.2077789941</v>
+        <v>16999.20777899416</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927244</v>
+        <v>202168.0999927242</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>457775.3608255375</v>
       </c>
       <c r="D4" t="n">
-        <v>438929.2150975107</v>
+        <v>438929.2150975104</v>
       </c>
       <c r="E4" t="n">
-        <v>60655.33327364774</v>
+        <v>60655.33327364775</v>
       </c>
       <c r="F4" t="n">
-        <v>60655.33327364773</v>
+        <v>60655.33327364775</v>
       </c>
       <c r="G4" t="n">
-        <v>74063.98968944914</v>
+        <v>74063.98968944912</v>
       </c>
       <c r="H4" t="n">
-        <v>74063.98968944914</v>
+        <v>74063.98968944921</v>
       </c>
       <c r="I4" t="n">
         <v>91700.40398688402</v>
       </c>
       <c r="J4" t="n">
+        <v>91012.3530946284</v>
+      </c>
+      <c r="K4" t="n">
         <v>91012.35309462836</v>
       </c>
-      <c r="K4" t="n">
-        <v>91012.35309462837</v>
-      </c>
       <c r="L4" t="n">
-        <v>91012.35309462828</v>
+        <v>91012.35309462834</v>
       </c>
       <c r="M4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.8428831941</v>
       </c>
       <c r="N4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="O4" t="n">
-        <v>76430.40983090372</v>
+        <v>76430.40983090375</v>
       </c>
       <c r="P4" t="n">
-        <v>76430.40983090379</v>
+        <v>76430.40983090375</v>
       </c>
     </row>
     <row r="5">
@@ -26473,31 +26473,31 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34890.26850253469</v>
+        <v>34890.26850253472</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
         <v>80041.8763202471</v>
       </c>
       <c r="H5" t="n">
-        <v>80041.87632024709</v>
+        <v>80041.8763202471</v>
       </c>
       <c r="I5" t="n">
         <v>86503.64721582715</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624985</v>
@@ -26506,10 +26506,10 @@
         <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>80355.82754432672</v>
+        <v>80355.8275443267</v>
       </c>
       <c r="P5" t="n">
-        <v>80355.82754432672</v>
+        <v>80355.8275443267</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>266427.652487723</v>
+        <v>266423.2389098549</v>
       </c>
       <c r="C6" t="n">
-        <v>266427.6524877229</v>
+        <v>266423.2389098547</v>
       </c>
       <c r="D6" t="n">
-        <v>234424.2841603252</v>
+        <v>234419.9169189155</v>
       </c>
       <c r="E6" t="n">
-        <v>-546534.2435597925</v>
+        <v>-546675.5204597278</v>
       </c>
       <c r="F6" t="n">
-        <v>568280.3575526748</v>
+        <v>568139.0806527382</v>
       </c>
       <c r="G6" t="n">
-        <v>557990.0145628422</v>
+        <v>557907.9374039965</v>
       </c>
       <c r="H6" t="n">
-        <v>574989.222341836</v>
+        <v>574907.1451829904</v>
       </c>
       <c r="I6" t="n">
-        <v>552997.7343045875</v>
+        <v>552997.7343045871</v>
       </c>
       <c r="J6" t="n">
-        <v>538435.8899727734</v>
+        <v>538435.8899727729</v>
       </c>
       <c r="K6" t="n">
-        <v>579073.3423550273</v>
+        <v>579073.3423550272</v>
       </c>
       <c r="L6" t="n">
         <v>562074.1345760329</v>
       </c>
       <c r="M6" t="n">
-        <v>381983.0969422947</v>
+        <v>381983.0969422937</v>
       </c>
       <c r="N6" t="n">
         <v>584151.196935019</v>
       </c>
       <c r="O6" t="n">
-        <v>576158.3936234824</v>
+        <v>576086.7206339532</v>
       </c>
       <c r="P6" t="n">
-        <v>576158.3936234829</v>
+        <v>576086.7206339539</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>46.97513661859254</v>
       </c>
       <c r="G2" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="H2" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="I2" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859249</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="O2" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="P2" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
     </row>
     <row r="3">
@@ -26741,16 +26741,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076592</v>
+        <v>57.92057351076695</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
+        <v>1089.776700593298</v>
+      </c>
+      <c r="G3" t="n">
         <v>1089.776700593299</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022931</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="I4" t="n">
-        <v>937.6805819743334</v>
+        <v>937.6805819743333</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="N4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.24900972374272</v>
+        <v>21.24900972374274</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.72612689484982</v>
+        <v>25.72612689484981</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374263</v>
+        <v>21.2490097237427</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951248</v>
+        <v>50.70958360951246</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076592</v>
+        <v>57.92057351076695</v>
       </c>
       <c r="E3" t="n">
-        <v>1031.856127082532</v>
+        <v>1031.856127082531</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.2791265720406</v>
+        <v>106.2791265720402</v>
       </c>
       <c r="J4" t="n">
-        <v>76.6558792342812</v>
+        <v>76.65587923428154</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959711</v>
+        <v>648.4664495959706</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374272</v>
+        <v>21.24900972374274</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.72612689484982</v>
+        <v>25.72612689484981</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>337.090162624442</v>
       </c>
       <c r="I8" t="n">
-        <v>201.4990738507122</v>
+        <v>201.4990738507121</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>135.2425723098104</v>
+        <v>135.2425723098101</v>
       </c>
       <c r="S8" t="n">
-        <v>203.7140793596058</v>
+        <v>203.7140793596057</v>
       </c>
       <c r="T8" t="n">
         <v>222.0765638936052</v>
@@ -27950,7 +27950,7 @@
         <v>111.032226284886</v>
       </c>
       <c r="I9" t="n">
-        <v>85.10723188858948</v>
+        <v>85.10723188858941</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>92.42270548643178</v>
+        <v>92.42270548643165</v>
       </c>
       <c r="S9" t="n">
-        <v>169.3690802659313</v>
+        <v>169.3690802659312</v>
       </c>
       <c r="T9" t="n">
-        <v>199.6625682508934</v>
+        <v>199.6625682508933</v>
       </c>
       <c r="U9" t="n">
         <v>225.9331857734025</v>
@@ -28029,13 +28029,13 @@
         <v>161.2985442960702</v>
       </c>
       <c r="I10" t="n">
-        <v>152.3094707112974</v>
+        <v>152.3094707112973</v>
       </c>
       <c r="J10" t="n">
-        <v>85.9747817528494</v>
+        <v>85.97478175284925</v>
       </c>
       <c r="K10" t="n">
-        <v>10.13465691657813</v>
+        <v>10.13465691657791</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.41603665156873</v>
+        <v>77.41603665156858</v>
       </c>
       <c r="R10" t="n">
-        <v>172.5970773348048</v>
+        <v>172.5970773348047</v>
       </c>
       <c r="S10" t="n">
         <v>222.1963728005765</v>
@@ -28345,7 +28345,7 @@
         <v>46.97513661859254</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>46.97513661859254</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="K16" t="n">
         <v>46.97513661859254</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="C17" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="D17" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="E17" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="F17" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="G17" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="H17" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="T17" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="U17" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="V17" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="W17" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="X17" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="C19" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="D19" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="E19" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="F19" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="G19" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="H19" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="I19" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>28.9138818683561</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.91388186835741</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="S19" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="T19" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="U19" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="V19" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="W19" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="X19" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="C20" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="D20" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="E20" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="F20" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="G20" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="H20" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="T20" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="U20" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="V20" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="W20" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="X20" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="C22" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="D22" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="E22" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="F22" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="G22" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="H22" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="I22" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28998,34 +28998,34 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>28.91388186835741</v>
+        <v>28.91388186835673</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="S22" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="T22" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="U22" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="V22" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="W22" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="X22" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233529</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="C23" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="D23" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="E23" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="F23" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="G23" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="H23" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="T23" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="U23" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="V23" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="W23" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="X23" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="C25" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="D25" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="E25" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="F25" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="G25" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="H25" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="I25" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>28.91388186835763</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29235,34 +29235,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>28.91388186835815</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="S25" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="T25" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="U25" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="V25" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="W25" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="X25" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.22414634233526</v>
+        <v>68.22414634233527</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="32">
@@ -29931,7 +29931,7 @@
         <v>46.97513661859249</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859369</v>
       </c>
       <c r="L34" t="n">
         <v>46.97513661859249</v>
@@ -29943,7 +29943,7 @@
         <v>46.97513661859249</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859398</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P34" t="n">
         <v>46.97513661859249</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>55.47778196371155</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X37" t="n">
-        <v>46.72521440565393</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810496</v>
+        <v>55.47778196371191</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G40" t="n">
-        <v>45.39291458738685</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="C41" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="D41" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="E41" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="F41" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="G41" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="H41" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="T41" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="U41" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="V41" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="W41" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="X41" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="Y41" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="C43" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="D43" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="E43" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="F43" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="G43" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="H43" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="I43" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>40.54593709771412</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="S43" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="T43" t="n">
-        <v>71.95859333325515</v>
+        <v>40.54593709771461</v>
       </c>
       <c r="U43" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="V43" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="W43" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="X43" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="C44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="D44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="E44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="F44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="G44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="H44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="T44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="U44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="V44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="W44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="X44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="Y44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="C46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="D46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="E46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="F46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="G46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="H46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="I46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>40.54593709771459</v>
       </c>
       <c r="S46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="T46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="U46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="V46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="W46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="X46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325512</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2328465266764457</v>
+        <v>0.2328465266764499</v>
       </c>
       <c r="H8" t="n">
-        <v>2.38463949132515</v>
+        <v>2.384639491325193</v>
       </c>
       <c r="I8" t="n">
-        <v>8.976815719693683</v>
+        <v>8.976815719693843</v>
       </c>
       <c r="J8" t="n">
-        <v>19.762557893505</v>
+        <v>19.76255789350536</v>
       </c>
       <c r="K8" t="n">
-        <v>29.61895136771896</v>
+        <v>29.61895136771948</v>
       </c>
       <c r="L8" t="n">
-        <v>36.74492825849324</v>
+        <v>36.74492825849389</v>
       </c>
       <c r="M8" t="n">
-        <v>40.88581267727548</v>
+        <v>40.88581267727621</v>
       </c>
       <c r="N8" t="n">
-        <v>41.54738787119494</v>
+        <v>41.54738787119567</v>
       </c>
       <c r="O8" t="n">
-        <v>39.23202022155603</v>
+        <v>39.23202022155672</v>
       </c>
       <c r="P8" t="n">
-        <v>33.48362159423127</v>
+        <v>33.48362159423186</v>
       </c>
       <c r="Q8" t="n">
-        <v>25.14480535763105</v>
+        <v>25.14480535763149</v>
       </c>
       <c r="R8" t="n">
-        <v>14.6265456313393</v>
+        <v>14.62654563133956</v>
       </c>
       <c r="S8" t="n">
-        <v>5.305990226639512</v>
+        <v>5.305990226639607</v>
       </c>
       <c r="T8" t="n">
-        <v>1.019285670526142</v>
+        <v>1.01928567052616</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01862772213411566</v>
+        <v>0.01862772213411599</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1245838750986286</v>
+        <v>0.1245838750986308</v>
       </c>
       <c r="H9" t="n">
-        <v>1.203217951610439</v>
+        <v>1.203217951610461</v>
       </c>
       <c r="I9" t="n">
-        <v>4.28940096282559</v>
+        <v>4.289400962825666</v>
       </c>
       <c r="J9" t="n">
-        <v>11.77044409429631</v>
+        <v>11.77044409429652</v>
       </c>
       <c r="K9" t="n">
-        <v>20.11756372590443</v>
+        <v>20.11756372590478</v>
       </c>
       <c r="L9" t="n">
-        <v>27.05054709104214</v>
+        <v>27.05054709104262</v>
       </c>
       <c r="M9" t="n">
-        <v>31.56671256336742</v>
+        <v>31.56671256336798</v>
       </c>
       <c r="N9" t="n">
-        <v>32.40218951523499</v>
+        <v>32.40218951523556</v>
       </c>
       <c r="O9" t="n">
-        <v>29.64167312489169</v>
+        <v>29.64167312489221</v>
       </c>
       <c r="P9" t="n">
-        <v>23.79005593878988</v>
+        <v>23.7900559387903</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.90302237223898</v>
+        <v>15.90302237223926</v>
       </c>
       <c r="R9" t="n">
-        <v>7.735128666211346</v>
+        <v>7.735128666211484</v>
       </c>
       <c r="S9" t="n">
-        <v>2.314090837906543</v>
+        <v>2.314090837906584</v>
       </c>
       <c r="T9" t="n">
-        <v>0.502160443928244</v>
+        <v>0.5021604439282529</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0081963075722782</v>
+        <v>0.008196307572278346</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1044469358390861</v>
+        <v>0.1044469358390879</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9286282113693296</v>
+        <v>0.9286282113693461</v>
       </c>
       <c r="I10" t="n">
-        <v>3.14100421596088</v>
+        <v>3.141004215960936</v>
       </c>
       <c r="J10" t="n">
-        <v>7.384398363823385</v>
+        <v>7.384398363823516</v>
       </c>
       <c r="K10" t="n">
-        <v>12.13483490930473</v>
+        <v>12.13483490930494</v>
       </c>
       <c r="L10" t="n">
-        <v>15.52841080647649</v>
+        <v>15.52841080647677</v>
       </c>
       <c r="M10" t="n">
-        <v>16.37253195157601</v>
+        <v>16.3725319515763</v>
       </c>
       <c r="N10" t="n">
-        <v>15.98322973617579</v>
+        <v>15.98322973617608</v>
       </c>
       <c r="O10" t="n">
-        <v>14.76309962205555</v>
+        <v>14.76309962205582</v>
       </c>
       <c r="P10" t="n">
-        <v>12.63238213093819</v>
+        <v>12.63238213093841</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.746006600125654</v>
+        <v>8.74600660012581</v>
       </c>
       <c r="R10" t="n">
-        <v>4.696314042364723</v>
+        <v>4.696314042364807</v>
       </c>
       <c r="S10" t="n">
-        <v>1.820225236395709</v>
+        <v>1.820225236395741</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4462732713124586</v>
+        <v>0.4462732713124665</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005697105591222883</v>
+        <v>0.005697105591222985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026443</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33269,7 +33269,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837924</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33749,7 +33749,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P36" t="n">
         <v>447.6103584002926</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O39" t="n">
         <v>557.7086478970249</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165887</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
         <v>366.7325087887907</v>
@@ -35814,7 +35814,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O16" t="n">
         <v>349.3282668412323</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>348.6712540385543</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.3081204062511</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882205</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36294,7 +36294,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>263.8709530134678</v>
+        <v>263.8709530134672</v>
       </c>
       <c r="Q22" t="n">
         <v>78.39423853789366</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
@@ -36367,19 +36367,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>592.3240543142069</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>436.803669922704</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597755</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36522,7 +36522,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>376.5472612618414</v>
       </c>
       <c r="N25" t="n">
         <v>344.8569461675401</v>
@@ -36531,7 +36531,7 @@
         <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>263.8709530134685</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
         <v>78.39423853789363</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>620.9803766354879</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302265</v>
@@ -36607,16 +36607,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>698.2880119162097</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36841,16 +36841,16 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>698.2880119162088</v>
+        <v>795.0547863356126</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222472</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597773</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36917,7 +36917,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004591</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
         <v>394.6085160120763</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>389.3800369577368</v>
+        <v>558.4766521298114</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165868</v>
+        <v>92.5535532316587</v>
       </c>
       <c r="K34" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629132</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887905</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412337</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P34" t="n">
         <v>281.9322077637029</v>
@@ -37306,7 +37306,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.191286555402</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923319</v>
@@ -37397,7 +37397,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525805</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.761986219371</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
